--- a/src/main/kotlin/output/mobyGames.xlsx
+++ b/src/main/kotlin/output/mobyGames.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ggredinare/personal/kotlin-web-scraping/kotlin-web-scraping/src/main/kotlin/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEBBD5B-BD69-774D-BC5E-044123F6F367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D5F3EE-38A6-C747-8D81-B75A5A6DA1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="24460" xr2:uid="{DF05A7DD-9190-744F-A539-C99A1D6AA0CC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="25600" xr2:uid="{DF05A7DD-9190-744F-A539-C99A1D6AA0CC}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="246">
   <si>
     <t>Arcade</t>
   </si>
@@ -775,205 +775,12 @@
   </si>
   <si>
     <t>Genre</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>Digger</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>[PC]</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>Styx</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>[DOS, PC, DOS]</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>The Chessmaster 2000</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>[MSX, Commodore, 1986, II, Atari, 1986, 1986, 1987, ST, Macintosh, ZX, 1990, CPC]</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>V for Victory: Gold-Juno-Sword</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>[DOS, Macintosh]</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Who Framed Roger Rabbit</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>[DOS, Amiga, Atari, 1988, 64, Apple, DOS]</t>
-  </si>
-  <si>
-    <t>Rollo and the Brush Brothers</t>
-  </si>
-  <si>
-    <t>The Chessmaster 3000</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>[DOS, Windows, 1991, DOS]</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>Chessmaster 5000</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>[Windows]</t>
-  </si>
-  <si>
-    <t>The Chessmaster 4000 Turbo</t>
-  </si>
-  <si>
-    <t>[Windows, 1995, Windows]</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>Sid Meier's Alpha Centauri</t>
-  </si>
-  <si>
-    <t>February 1999</t>
-  </si>
-  <si>
-    <t>[Windows, Macintosh]</t>
-  </si>
-  <si>
-    <t>Sid Meier's Gettysburg!</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>7.8</t>
-  </si>
-  <si>
-    <t>Indianapolis 500: The Simulation</t>
-  </si>
-  <si>
-    <t>December 1989</t>
-  </si>
-  <si>
-    <t>[DOS, Amiga]</t>
-  </si>
-  <si>
-    <t>The X-Files Game</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>[Windows, Macintosh, PlayStation]</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>V for Victory: Market Garden</t>
-  </si>
-  <si>
-    <t>Sid Meier's Civilization II</t>
-  </si>
-  <si>
-    <t>March 1996</t>
-  </si>
-  <si>
-    <t>[Windows, 1997, 1998, on]</t>
-  </si>
-  <si>
-    <t>Wing Commander</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>[DOS, SNES, Amiga, FM, 1994, CD]</t>
-  </si>
-  <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t>Sargon V: World Class Chess</t>
-  </si>
-  <si>
-    <t>[DOS, PC-98, FM, 1994, DOS]</t>
-  </si>
-  <si>
-    <t>V for Victory: Battleset 1 - D-Day Utah Beach - 1944</t>
-  </si>
-  <si>
-    <t>6.9</t>
-  </si>
-  <si>
-    <t>The Fidelity Chessmaster 2100</t>
-  </si>
-  <si>
-    <t>[Commodore, 1988, II, Apple, 1989, 1990, Commodore]</t>
-  </si>
-  <si>
-    <t>OutRun</t>
-  </si>
-  <si>
-    <t>September 25th, 1986</t>
-  </si>
-  <si>
-    <t>[Arcade, SEGA, System, ZX, 1987, CPC, Atari, 1988, 64, MSX, Amiga, DOS, TurboGrafx-16, Genesis, Game, 1996, Saturn, J2ME, Nintendo, 2018, Switch]</t>
-  </si>
-  <si>
-    <t>7.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1363,16 +1170,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6579082F-AC67-DE4D-B996-8633E49C4451}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.83203125" collapsed="true"/>
-    <col min="4" max="6" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="149.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="30.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1393,406 +1201,6 @@
       </c>
       <c r="F1" s="3" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" t="s">
-        <v>298</v>
-      </c>
-      <c r="E4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E6" t="s">
-        <v>272</v>
-      </c>
-      <c r="F6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D8" t="s">
-        <v>263</v>
-      </c>
-      <c r="E8" t="s">
-        <v>303</v>
-      </c>
-      <c r="F8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E9" t="s">
-        <v>260</v>
-      </c>
-      <c r="F9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D10" t="s">
-        <v>263</v>
-      </c>
-      <c r="E10" t="s">
-        <v>264</v>
-      </c>
-      <c r="F10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>257</v>
-      </c>
-      <c r="C11" t="s">
-        <v>258</v>
-      </c>
-      <c r="D11" t="s">
-        <v>259</v>
-      </c>
-      <c r="E11" t="s">
-        <v>260</v>
-      </c>
-      <c r="F11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>304</v>
-      </c>
-      <c r="C12" t="s">
-        <v>266</v>
-      </c>
-      <c r="D12" t="s">
-        <v>305</v>
-      </c>
-      <c r="E12" t="s">
-        <v>272</v>
-      </c>
-      <c r="F12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>269</v>
-      </c>
-      <c r="C13" t="s">
-        <v>270</v>
-      </c>
-      <c r="D13" t="s">
-        <v>271</v>
-      </c>
-      <c r="E13" t="s">
-        <v>272</v>
-      </c>
-      <c r="F13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>276</v>
-      </c>
-      <c r="C14" t="s">
-        <v>262</v>
-      </c>
-      <c r="D14" t="s">
-        <v>277</v>
-      </c>
-      <c r="E14" t="s">
-        <v>278</v>
-      </c>
-      <c r="F14" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>273</v>
-      </c>
-      <c r="C15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D15" t="s">
-        <v>275</v>
-      </c>
-      <c r="E15" t="s">
-        <v>272</v>
-      </c>
-      <c r="F15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>293</v>
-      </c>
-      <c r="C16" t="s">
-        <v>294</v>
-      </c>
-      <c r="D16" t="s">
-        <v>295</v>
-      </c>
-      <c r="E16" t="s">
-        <v>278</v>
-      </c>
-      <c r="F16" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>306</v>
-      </c>
-      <c r="C17" t="s">
-        <v>307</v>
-      </c>
-      <c r="D17" t="s">
-        <v>308</v>
-      </c>
-      <c r="E17" t="s">
-        <v>309</v>
-      </c>
-      <c r="F17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>300</v>
-      </c>
-      <c r="C18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D18" t="s">
-        <v>301</v>
-      </c>
-      <c r="E18" t="s">
-        <v>264</v>
-      </c>
-      <c r="F18" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>249</v>
-      </c>
-      <c r="C19" t="s">
-        <v>250</v>
-      </c>
-      <c r="D19" t="s">
-        <v>251</v>
-      </c>
-      <c r="E19" t="s">
-        <v>252</v>
-      </c>
-      <c r="F19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>268</v>
-      </c>
-      <c r="C20" t="s">
-        <v>254</v>
-      </c>
-      <c r="D20" t="s">
-        <v>251</v>
-      </c>
-      <c r="E20" t="s">
-        <v>264</v>
-      </c>
-      <c r="F20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>253</v>
-      </c>
-      <c r="C21" t="s">
-        <v>254</v>
-      </c>
-      <c r="D21" t="s">
-        <v>255</v>
-      </c>
-      <c r="E21" t="s">
-        <v>256</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1808,20 +1216,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="2" max="2" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="5.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">

--- a/src/main/kotlin/output/mobyGames.xlsx
+++ b/src/main/kotlin/output/mobyGames.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ggredinare/personal/kotlin-web-scraping/kotlin-web-scraping/src/main/kotlin/output/"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="307">
   <si>
     <t>Arcade</t>
   </si>
@@ -775,12 +775,196 @@
   </si>
   <si>
     <t>Genre</t>
+  </si>
+  <si>
+    <t>The Chessmaster 4000 Turbo</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>[Windows 3.x, Windows]</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>Rollo and the Brush Brothers</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>[PC Booter]</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Chessmaster 5000</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>[Windows]</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>V for Victory: Gold-Juno-Sword</t>
+  </si>
+  <si>
+    <t>[DOS, Macintosh]</t>
+  </si>
+  <si>
+    <t>Styx</t>
+  </si>
+  <si>
+    <t>[DOS, PC Booter]</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>The Chessmaster 2000</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>[MSX, Commodore 64, Apple II, Atari 8-bit, DOS, Amiga, Atari ST, Macintosh, ZX Spectrum, Amstrad CPC]</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>The Fidelity Chessmaster 2100</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>[Commodore 64, Apple II, Apple IIgs, DOS, Amiga]</t>
+  </si>
+  <si>
+    <t>Indianapolis 500: The Simulation</t>
+  </si>
+  <si>
+    <t>December 1989</t>
+  </si>
+  <si>
+    <t>[DOS, Amiga]</t>
+  </si>
+  <si>
+    <t>Sid Meier's Gettysburg!</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>V for Victory: Market Garden</t>
+  </si>
+  <si>
+    <t>Digger</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>Sargon V: World Class Chess</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>[DOS, PC-98, FM Towns, Macintosh]</t>
+  </si>
+  <si>
+    <t>The Chessmaster 3000</t>
+  </si>
+  <si>
+    <t>[DOS, Windows 3.x, Macintosh]</t>
+  </si>
+  <si>
+    <t>Who Framed Roger Rabbit</t>
+  </si>
+  <si>
+    <t>[DOS, Amiga, Atari ST, Commodore 64, Apple II]</t>
+  </si>
+  <si>
+    <t>Sid Meier's Alpha Centauri</t>
+  </si>
+  <si>
+    <t>February 1999</t>
+  </si>
+  <si>
+    <t>[Windows, Macintosh]</t>
+  </si>
+  <si>
+    <t>V for Victory: Battleset 1 - D-Day Utah Beach - 1944</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>Sid Meier's Civilization II</t>
+  </si>
+  <si>
+    <t>March 1996</t>
+  </si>
+  <si>
+    <t>[Windows 3.x, Macintosh, PlayStation]</t>
+  </si>
+  <si>
+    <t>Wing Commander</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>[DOS, SNES, Amiga, FM Towns, SEGA CD]</t>
+  </si>
+  <si>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>The X-Files Game</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>[Windows, Macintosh, PlayStation]</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>OutRun</t>
+  </si>
+  <si>
+    <t>September 25th, 1986</t>
+  </si>
+  <si>
+    <t>[Arcade, SEGA Master System, ZX Spectrum, Amstrad CPC, Atari ST, Commodore 64, MSX, Amiga, DOS, TurboGrafx-16, Genesis, Game Gear, SEGA Saturn, J2ME, Nintendo 3DS, Nintendo Switch]</t>
+  </si>
+  <si>
+    <t>7.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1170,17 +1354,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6579082F-AC67-DE4D-B996-8633E49C4451}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.83203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="149.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="30.83203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="149.6640625" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="30.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1201,6 +1385,406 @@
       </c>
       <c r="F1" s="3" t="s">
         <v>245</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" t="s">
+        <v>269</v>
+      </c>
+      <c r="E12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" t="s">
+        <v>257</v>
+      </c>
+      <c r="F13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" t="s">
+        <v>249</v>
+      </c>
+      <c r="F14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D16" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C17" t="s">
+        <v>304</v>
+      </c>
+      <c r="D17" t="s">
+        <v>305</v>
+      </c>
+      <c r="E17" t="s">
+        <v>306</v>
+      </c>
+      <c r="F17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" t="s">
+        <v>281</v>
+      </c>
+      <c r="D18" t="s">
+        <v>282</v>
+      </c>
+      <c r="E18" t="s">
+        <v>253</v>
+      </c>
+      <c r="F18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" t="s">
+        <v>251</v>
+      </c>
+      <c r="D20" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D21" t="s">
+        <v>261</v>
+      </c>
+      <c r="E21" t="s">
+        <v>262</v>
+      </c>
+      <c r="F21" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1216,20 +1800,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="5.83203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="5.83203125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="5.83203125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="5.83203125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.83203125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="5.83203125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="5.83203125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="5.83203125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.83203125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="5.83203125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="5.83203125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="5.83203125" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="5.83203125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="5.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">

--- a/src/main/kotlin/output/mobyGames.xlsx
+++ b/src/main/kotlin/output/mobyGames.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ggredinare/personal/kotlin-web-scraping/kotlin-web-scraping/src/main/kotlin/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D5F3EE-38A6-C747-8D81-B75A5A6DA1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F004D2FE-3FBB-B740-8461-CAB81A1B7D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="25600" xr2:uid="{DF05A7DD-9190-744F-A539-C99A1D6AA0CC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="24460" xr2:uid="{DF05A7DD-9190-744F-A539-C99A1D6AA0CC}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="470">
   <si>
     <t>Arcade</t>
   </si>
@@ -958,13 +958,501 @@
   </si>
   <si>
     <t>7.4</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>[-]</t>
+  </si>
+  <si>
+    <t>Conquest</t>
+  </si>
+  <si>
+    <t>Moon Bugs</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>[PC Booter, Apple II, Atari 8-bit, TRS-80, Commodore 64, DOS, TI-99/4A, Macintosh, CP/M, Atari ST, Amstrad CPC, Amstrad PCW, Amiga]</t>
+  </si>
+  <si>
+    <t>The Ancient Art of War</t>
+  </si>
+  <si>
+    <t>[DOS, Apple II, Macintosh, PC-88, PC-98, Amiga, Atari ST, Amstrad CPC]</t>
+  </si>
+  <si>
+    <t>The Three Stooges</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>[DOS, Amiga, Commodore 64, NES, Apple IIgs, Game Boy Advance, PlayStation]</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>Spitfire Ace</t>
+  </si>
+  <si>
+    <t>[Atari 8-bit, PC Booter, Commodore 64]</t>
+  </si>
+  <si>
+    <t>Manhunter 2: San Francisco</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>[DOS, Atari ST, Macintosh, Amiga]</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>Manhunter: New York</t>
+  </si>
+  <si>
+    <t>[Apple II, DOS, Apple IIgs, Atari ST, Amiga, Macintosh]</t>
+  </si>
+  <si>
+    <t>The King of Chicago</t>
+  </si>
+  <si>
+    <t>November 1986</t>
+  </si>
+  <si>
+    <t>[Macintosh, Amiga, Apple IIgs, DOS, Atari ST, Sharp X68000, iPhone, iPad, Android]</t>
+  </si>
+  <si>
+    <t>Leather Goddesses of Phobos</t>
+  </si>
+  <si>
+    <t>[Amstrad CPC, Amstrad PCW, DOS, Amiga, Atari ST, Commodore 64, Apple II, Atari 8-bit, Macintosh, Commodore 128, TI-99/4A]</t>
+  </si>
+  <si>
+    <t>Knights of the Sky</t>
+  </si>
+  <si>
+    <t>[DOS, Amiga, Atari ST, PC-98, Linux, Windows, Macintosh]</t>
+  </si>
+  <si>
+    <t>Zyll</t>
+  </si>
+  <si>
+    <t>Zork II: The Wizard of Frobozz</t>
+  </si>
+  <si>
+    <t>November 1981</t>
+  </si>
+  <si>
+    <t>[Apple II, TRS-80, PC Booter, Atari 8-bit, PC-8000, Mainframe, Commodore 64, DOS, TRS-80 CoCo, Macintosh, Commodore 16, Plus/4, CP/M, Atari ST, Tatung Einstein, Amiga, Amstrad CPC, Amstrad PCW, Browser]</t>
+  </si>
+  <si>
+    <t>Enchanter</t>
+  </si>
+  <si>
+    <t>September 1983</t>
+  </si>
+  <si>
+    <t>[PC Booter, Commodore 64, Apple II, Atari 8-bit, TRS-80, DOS, TRS-80 CoCo, Macintosh, Atari ST, Amiga, Amstrad CPC, Amstrad PCW]</t>
+  </si>
+  <si>
+    <t>Thexder</t>
+  </si>
+  <si>
+    <t>April 1985</t>
+  </si>
+  <si>
+    <t>[PC-88, PC-8000, Sharp X1, FM-7, NES, MSX, Sharp MZ-80B/2000/2500, PC-98, Apple II, Apple IIgs, DOS, Amiga, TRS-80 CoCo, Macintosh]</t>
+  </si>
+  <si>
+    <t>Bop'N Wrestle</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>[Commodore 64, Amstrad CPC, ZX Spectrum, Apple II, Atari 8-bit, DOS, Windows]</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>Rocket Ranger</t>
+  </si>
+  <si>
+    <t>[DOS, Amiga, Commodore 64, Atari ST, Apple IIgs, NES, FM Towns, Android, iPhone, iPad, Windows]</t>
+  </si>
+  <si>
+    <t>Zork: The Great Underground Empire</t>
+  </si>
+  <si>
+    <t>November 1980</t>
+  </si>
+  <si>
+    <t>[Mainframe, TRS-80, Apple II, PC Booter, PC-8000, Atari 8-bit, Commodore 64, DOS, TRS-80 CoCo, Macintosh, Commodore 16, Plus/4, CP/M, Atari ST, Tatung Einstein, Amiga, Amstrad CPC, Amstrad PCW, Commodore 128, PC-98, Browser]</t>
+  </si>
+  <si>
+    <t>Planetfall</t>
+  </si>
+  <si>
+    <t>[DOS, PC Booter, Commodore 64, Apple II, Atari 8-bit, TRS-80, TRS-80 CoCo, Macintosh, Commodore 16, Plus/4, CP/M, Atari ST, Tatung Einstein, Amiga, Amstrad CPC, Amstrad PCW, Commodore 128, PC-98]</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>Starcross</t>
+  </si>
+  <si>
+    <t>September 1982</t>
+  </si>
+  <si>
+    <t>[PC Booter, Apple II, Atari 8-bit, TRS-80, Commodore 64, DOS, Macintosh, Commodore 16, Plus/4, Tatung Einstein, Atari ST, Amstrad CPC, Amstrad PCW, Amiga]</t>
+  </si>
+  <si>
+    <t>Skate or Die</t>
+  </si>
+  <si>
+    <t>[Commodore 64, DOS, Apple IIgs, ZX Spectrum, Amstrad CPC, NES, Wii]</t>
+  </si>
+  <si>
+    <t>Beyond Zork: The Coconut of Quendor</t>
+  </si>
+  <si>
+    <t>October 1987</t>
+  </si>
+  <si>
+    <t>[DOS, Amiga, Atari ST, Apple II, Commodore 128, Macintosh, Apple IIgs]</t>
+  </si>
+  <si>
+    <t>The Cycles: International Grand Prix Racing</t>
+  </si>
+  <si>
+    <t>November 1989</t>
+  </si>
+  <si>
+    <t>[Amiga, DOS, ZX Spectrum, Amstrad CPC, Macintosh, Commodore 64]</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>Zork Zero: The Revenge of Megaboz</t>
+  </si>
+  <si>
+    <t>January 1989</t>
+  </si>
+  <si>
+    <t>[Macintosh, Amiga, Apple II, DOS]</t>
+  </si>
+  <si>
+    <t>Sorcerer</t>
+  </si>
+  <si>
+    <t>[Macintosh, DOS, PC Booter, Commodore 64, Apple II, Atari 8-bit, TRS-80, Amiga, Amstrad CPC, Amstrad PCW, Atari ST]</t>
+  </si>
+  <si>
+    <t>Spellbreaker</t>
+  </si>
+  <si>
+    <t>October 1985</t>
+  </si>
+  <si>
+    <t>[DOS, Atari ST, Commodore 64, Apple II, Atari 8-bit, Macintosh, Amiga, Amstrad CPC, Amstrad PCW, TI-99/4A]</t>
+  </si>
+  <si>
+    <t>Wing Commander Academy</t>
+  </si>
+  <si>
+    <t>[DOS, Windows]</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>Suspended</t>
+  </si>
+  <si>
+    <t>[Commodore 64, PC Booter, Apple II, Atari 8-bit, TRS-80, DOS, TI-99/4A, Macintosh, Commodore 16, Plus/4, CP/M, Atari ST, Tatung Einstein, Amiga, Amstrad CPC, Amstrad PCW]</t>
+  </si>
+  <si>
+    <t>Zork III: The Dungeon Master</t>
+  </si>
+  <si>
+    <t>[TRS-80 CoCo, DOS, Apple II, Atari 8-bit, TRS-80, PC Booter, Commodore 64, Macintosh, Commodore 16, Plus/4, CP/M, Atari ST, Tatung Einstein, Amstrad CPC, Amstrad PCW, Amiga, Browser]</t>
+  </si>
+  <si>
+    <t>Airball</t>
+  </si>
+  <si>
+    <t>[DOS, Atari ST, TRS-80 CoCo, Dragon 32/64, Atari 8-bit, Amiga, Apple IIgs, Windows]</t>
+  </si>
+  <si>
+    <t>Night Mission Pinball (v3.0)</t>
+  </si>
+  <si>
+    <t>[DOS]</t>
+  </si>
+  <si>
+    <t>Snack Attack II</t>
+  </si>
+  <si>
+    <t>Cosmic Crusader</t>
+  </si>
+  <si>
+    <t>Master Miner</t>
+  </si>
+  <si>
+    <t>Karnov</t>
+  </si>
+  <si>
+    <t>[PC Booter, ZX Spectrum, Arcade, NES, Commodore 64, Amstrad CPC, DOS, Macintosh]</t>
+  </si>
+  <si>
+    <t>Infidel</t>
+  </si>
+  <si>
+    <t>November 1983</t>
+  </si>
+  <si>
+    <t>[PC Booter, Commodore 64, Apple II, Atari 8-bit, TRS-80, DOS, TRS-80 CoCo, Macintosh, Atari ST, Amstrad CPC, Amiga]</t>
+  </si>
+  <si>
+    <t>Prince of Persia 2: The Shadow &amp; The Flame</t>
+  </si>
+  <si>
+    <t>[DOS, Macintosh, FM Towns, PC-98, SNES]</t>
+  </si>
+  <si>
+    <t>Big Top</t>
+  </si>
+  <si>
+    <t>The Witness</t>
+  </si>
+  <si>
+    <t>[CP/M, PC Booter, Commodore 64, Apple II, Atari 8-bit, DOS, TRS-80 CoCo, Macintosh, Commodore 16, Plus/4, Atari ST, Amiga, Amstrad CPC, Amstrad PCW]</t>
+  </si>
+  <si>
+    <t>Mine Shaft</t>
+  </si>
+  <si>
+    <t>[PC Booter, Apple II]</t>
+  </si>
+  <si>
+    <t>Project Neptune</t>
+  </si>
+  <si>
+    <t>[Amiga, Amstrad CPC, Atari ST, Commodore 64, DOS]</t>
+  </si>
+  <si>
+    <t>Shamus</t>
+  </si>
+  <si>
+    <t>[Atari 8-bit, VIC-20, Commodore 64, Apple II, TRS-80 CoCo, PC-6001, TI-99/4A, PC Booter, Game Boy Color]</t>
+  </si>
+  <si>
+    <t>Seastalker</t>
+  </si>
+  <si>
+    <t>[DOS, TRS-80 CoCo, PC Booter, Commodore 64, Apple II, Atari 8-bit, Macintosh, Atari ST, Amiga, Amstrad CPC, Amstrad PCW]</t>
+  </si>
+  <si>
+    <t>Night Mission Pinball</t>
+  </si>
+  <si>
+    <t>[Commodore 64, Apple II, Atari 8-bit, PC Booter]</t>
+  </si>
+  <si>
+    <t>Crossfire</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>[Apple II, Atari 8-bit, VIC-20, PC Booter, Commodore 64]</t>
+  </si>
+  <si>
+    <t>Fire Hawk: Thexder - The Second Contact</t>
+  </si>
+  <si>
+    <t>[MSX, PC-88, DOS]</t>
+  </si>
+  <si>
+    <t>Archon: The Light and the Dark</t>
+  </si>
+  <si>
+    <t>[Atari 8-bit, Commodore 64, PC Booter, Apple II, Amstrad CPC, ZX Spectrum, Amiga, Macintosh, PC-88, Sharp X1, FM-7, NES, Palm OS, iPhone, iPad]</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>Jumpman</t>
+  </si>
+  <si>
+    <t>[Commodore 64, Apple II, Atari 8-bit, PC Booter, Wii, Antstream, Windows]</t>
+  </si>
+  <si>
+    <t>SimCity 3000</t>
+  </si>
+  <si>
+    <t>Sid Meier's Railroad Tycoon</t>
+  </si>
+  <si>
+    <t>[DOS, Amiga, Atari ST, Macintosh, PC-98, FM Towns]</t>
+  </si>
+  <si>
+    <t>8.2</t>
+  </si>
+  <si>
+    <t>Dr. Dumont's Wild P.A.R.T.I.</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>Bumble Plot</t>
+  </si>
+  <si>
+    <t>[Commodore 64, Apple II, TRS-80 CoCo, DOS]</t>
+  </si>
+  <si>
+    <t>TV and Cinema 101: Trivia from Talkies to Trekkies</t>
+  </si>
+  <si>
+    <t>Altered Destiny</t>
+  </si>
+  <si>
+    <t>[DOS, Amiga, Windows]</t>
+  </si>
+  <si>
+    <t>Transylvania</t>
+  </si>
+  <si>
+    <t>[Apple II, FM-7, Commodore 64, Atari 8-bit, Macintosh, PC-88, PC-98]</t>
+  </si>
+  <si>
+    <t>The Crimson Crown</t>
+  </si>
+  <si>
+    <t>[Commodore 64, Apple II, FM-7, DOS, Atari ST, Macintosh, PC-88, PC-98, Amiga]</t>
+  </si>
+  <si>
+    <t>Wishbringer</t>
+  </si>
+  <si>
+    <t>[TRS-80 CoCo, Tatung Einstein, DOS, Commodore 64, Apple II, Atari 8-bit, Macintosh, Atari ST, Amiga, Amstrad CPC, Amstrad PCW, Commodore 128, TI-99/4A]</t>
+  </si>
+  <si>
+    <t>Tass Times in Tonetown</t>
+  </si>
+  <si>
+    <t>[Commodore 64, PC Booter, Apple II, Amiga, Atari ST, Macintosh, Apple IIgs]</t>
+  </si>
+  <si>
+    <t>Touchdown Football</t>
+  </si>
+  <si>
+    <t>August 1984</t>
+  </si>
+  <si>
+    <t>[PC Booter, Commodore 64, Atari 8-bit, Atari 7800]</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>Suspect</t>
+  </si>
+  <si>
+    <t>[Commodore 16, Plus/4, DOS, PC Booter, Commodore 64, Apple II, Atari 8-bit, TI-99/4A, Macintosh, Atari ST, Amiga, Amstrad CPC, Amstrad PCW]</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>Wonderland</t>
+  </si>
+  <si>
+    <t>[DOS, Amiga, Atari ST, Acorn 32-bit]</t>
+  </si>
+  <si>
+    <t>Starflight 2: Trade Routes of the Cloud Nebula</t>
+  </si>
+  <si>
+    <t>[DOS, Amiga, Macintosh, Windows]</t>
+  </si>
+  <si>
+    <t>Role-playing (RPG)</t>
+  </si>
+  <si>
+    <t>Monster Math</t>
+  </si>
+  <si>
+    <t>Adventures in Math</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>The Hitchhiker's Guide to the Galaxy</t>
+  </si>
+  <si>
+    <t>[TRS-80 CoCo, Commodore 16, Plus/4, DOS, PC Booter, Commodore 64, Apple II, Atari 8-bit, TI-99/4A, TRS-80, Macintosh, Tatung Einstein, Atari ST, Amiga, Amstrad PCW, Amstrad CPC, Commodore 128, Browser]</t>
+  </si>
+  <si>
+    <t>A Mind Forever Voyaging</t>
+  </si>
+  <si>
+    <t>[Commodore 128, DOS, Atari ST, Apple II, Macintosh, Amiga]</t>
+  </si>
+  <si>
+    <t>Cutthroats</t>
+  </si>
+  <si>
+    <t>[Commodore 16, Plus/4, DOS, PC Booter, Commodore 64, Apple II, Atari 8-bit, TI-99/4A, TRS-80, Macintosh, Atari ST, Amiga, Amstrad CPC, Amstrad PCW]</t>
+  </si>
+  <si>
+    <t>Big Red Racing</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>Quarantine</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>[DOS, 3DO, PlayStation, SEGA Saturn]</t>
+  </si>
+  <si>
+    <t>Rise of the Dragon</t>
+  </si>
+  <si>
+    <t>[DOS, Amiga, Macintosh, SEGA CD, Windows]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1354,17 +1842,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6579082F-AC67-DE4D-B996-8633E49C4451}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.83203125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.83203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="149.6640625" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="30.83203125" collapsed="true"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.83203125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="201" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="30.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1387,9 +1875,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>299</v>
@@ -1407,9 +1895,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>285</v>
@@ -1427,9 +1915,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>295</v>
@@ -1447,9 +1935,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>287</v>
@@ -1467,9 +1955,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>270</v>
@@ -1487,9 +1975,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6.0</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>273</v>
@@ -1507,9 +1995,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7.0</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>290</v>
@@ -1527,9 +2015,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8.0</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>276</v>
@@ -1547,9 +2035,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9.0</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>258</v>
@@ -1567,9 +2055,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10.0</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>263</v>
@@ -1587,9 +2075,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11.0</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>267</v>
@@ -1607,9 +2095,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12.0</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>283</v>
@@ -1627,9 +2115,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13.0</v>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>246</v>
@@ -1647,9 +2135,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14.0</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>254</v>
@@ -1667,9 +2155,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15.0</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>292</v>
@@ -1687,9 +2175,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16.0</v>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>303</v>
@@ -1707,9 +2195,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17.0</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>280</v>
@@ -1727,9 +2215,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18.0</v>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>277</v>
@@ -1747,9 +2235,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19.0</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>250</v>
@@ -1767,9 +2255,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20.0</v>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>260</v>
@@ -1785,6 +2273,1606 @@
       </c>
       <c r="F21" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>310</v>
+      </c>
+      <c r="C22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D22" t="s">
+        <v>252</v>
+      </c>
+      <c r="E22" t="s">
+        <v>253</v>
+      </c>
+      <c r="F22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C23" t="s">
+        <v>278</v>
+      </c>
+      <c r="D23" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" t="s">
+        <v>312</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>316</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" t="s">
+        <v>317</v>
+      </c>
+      <c r="E24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>328</v>
+      </c>
+      <c r="C25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D25" t="s">
+        <v>329</v>
+      </c>
+      <c r="E25" t="s">
+        <v>291</v>
+      </c>
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>324</v>
+      </c>
+      <c r="C26" t="s">
+        <v>325</v>
+      </c>
+      <c r="D26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E26" t="s">
+        <v>327</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C27" t="s">
+        <v>331</v>
+      </c>
+      <c r="D27" t="s">
+        <v>332</v>
+      </c>
+      <c r="E27" t="s">
+        <v>321</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" t="s">
+        <v>319</v>
+      </c>
+      <c r="D28" t="s">
+        <v>320</v>
+      </c>
+      <c r="E28" t="s">
+        <v>321</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>335</v>
+      </c>
+      <c r="C29" t="s">
+        <v>296</v>
+      </c>
+      <c r="D29" t="s">
+        <v>336</v>
+      </c>
+      <c r="E29" t="s">
+        <v>279</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>322</v>
+      </c>
+      <c r="C30" t="s">
+        <v>314</v>
+      </c>
+      <c r="D30" t="s">
+        <v>323</v>
+      </c>
+      <c r="E30" t="s">
+        <v>253</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" t="s">
+        <v>314</v>
+      </c>
+      <c r="D31" t="s">
+        <v>315</v>
+      </c>
+      <c r="E31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>333</v>
+      </c>
+      <c r="C32" t="s">
+        <v>264</v>
+      </c>
+      <c r="D32" t="s">
+        <v>334</v>
+      </c>
+      <c r="E32" t="s">
+        <v>306</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>307</v>
+      </c>
+      <c r="C33" t="s">
+        <v>308</v>
+      </c>
+      <c r="D33" t="s">
+        <v>309</v>
+      </c>
+      <c r="E33" t="s">
+        <v>308</v>
+      </c>
+      <c r="F33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>307</v>
+      </c>
+      <c r="C34" t="s">
+        <v>308</v>
+      </c>
+      <c r="D34" t="s">
+        <v>309</v>
+      </c>
+      <c r="E34" t="s">
+        <v>308</v>
+      </c>
+      <c r="F34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>307</v>
+      </c>
+      <c r="C35" t="s">
+        <v>308</v>
+      </c>
+      <c r="D35" t="s">
+        <v>309</v>
+      </c>
+      <c r="E35" t="s">
+        <v>308</v>
+      </c>
+      <c r="F35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>307</v>
+      </c>
+      <c r="C36" t="s">
+        <v>308</v>
+      </c>
+      <c r="D36" t="s">
+        <v>309</v>
+      </c>
+      <c r="E36" t="s">
+        <v>308</v>
+      </c>
+      <c r="F36" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>307</v>
+      </c>
+      <c r="C37" t="s">
+        <v>308</v>
+      </c>
+      <c r="D37" t="s">
+        <v>309</v>
+      </c>
+      <c r="E37" t="s">
+        <v>308</v>
+      </c>
+      <c r="F37" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>307</v>
+      </c>
+      <c r="C38" t="s">
+        <v>308</v>
+      </c>
+      <c r="D38" t="s">
+        <v>309</v>
+      </c>
+      <c r="E38" t="s">
+        <v>308</v>
+      </c>
+      <c r="F38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>307</v>
+      </c>
+      <c r="C39" t="s">
+        <v>308</v>
+      </c>
+      <c r="D39" t="s">
+        <v>309</v>
+      </c>
+      <c r="E39" t="s">
+        <v>308</v>
+      </c>
+      <c r="F39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>307</v>
+      </c>
+      <c r="C40" t="s">
+        <v>308</v>
+      </c>
+      <c r="D40" t="s">
+        <v>309</v>
+      </c>
+      <c r="E40" t="s">
+        <v>308</v>
+      </c>
+      <c r="F40" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>307</v>
+      </c>
+      <c r="C41" t="s">
+        <v>308</v>
+      </c>
+      <c r="D41" t="s">
+        <v>309</v>
+      </c>
+      <c r="E41" t="s">
+        <v>308</v>
+      </c>
+      <c r="F41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>307</v>
+      </c>
+      <c r="C42" t="s">
+        <v>308</v>
+      </c>
+      <c r="D42" t="s">
+        <v>309</v>
+      </c>
+      <c r="E42" t="s">
+        <v>308</v>
+      </c>
+      <c r="F42" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>379</v>
+      </c>
+      <c r="C43" t="s">
+        <v>247</v>
+      </c>
+      <c r="D43" t="s">
+        <v>380</v>
+      </c>
+      <c r="E43" t="s">
+        <v>381</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>367</v>
+      </c>
+      <c r="C44" t="s">
+        <v>368</v>
+      </c>
+      <c r="D44" t="s">
+        <v>369</v>
+      </c>
+      <c r="E44" t="s">
+        <v>370</v>
+      </c>
+      <c r="F44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>386</v>
+      </c>
+      <c r="C45" t="s">
+        <v>319</v>
+      </c>
+      <c r="D45" t="s">
+        <v>387</v>
+      </c>
+      <c r="E45" t="s">
+        <v>266</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>351</v>
+      </c>
+      <c r="C46" t="s">
+        <v>268</v>
+      </c>
+      <c r="D46" t="s">
+        <v>352</v>
+      </c>
+      <c r="E46" t="s">
+        <v>298</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>347</v>
+      </c>
+      <c r="C47" t="s">
+        <v>348</v>
+      </c>
+      <c r="D47" t="s">
+        <v>349</v>
+      </c>
+      <c r="E47" t="s">
+        <v>350</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>337</v>
+      </c>
+      <c r="C48" t="s">
+        <v>251</v>
+      </c>
+      <c r="D48" t="s">
+        <v>252</v>
+      </c>
+      <c r="E48" t="s">
+        <v>302</v>
+      </c>
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>362</v>
+      </c>
+      <c r="C49" t="s">
+        <v>319</v>
+      </c>
+      <c r="D49" t="s">
+        <v>363</v>
+      </c>
+      <c r="E49" t="s">
+        <v>291</v>
+      </c>
+      <c r="F49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>344</v>
+      </c>
+      <c r="C50" t="s">
+        <v>345</v>
+      </c>
+      <c r="D50" t="s">
+        <v>346</v>
+      </c>
+      <c r="E50" t="s">
+        <v>302</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>353</v>
+      </c>
+      <c r="C51" t="s">
+        <v>354</v>
+      </c>
+      <c r="D51" t="s">
+        <v>355</v>
+      </c>
+      <c r="E51" t="s">
+        <v>279</v>
+      </c>
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>356</v>
+      </c>
+      <c r="C52" t="s">
+        <v>278</v>
+      </c>
+      <c r="D52" t="s">
+        <v>357</v>
+      </c>
+      <c r="E52" t="s">
+        <v>358</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>338</v>
+      </c>
+      <c r="C53" t="s">
+        <v>339</v>
+      </c>
+      <c r="D53" t="s">
+        <v>340</v>
+      </c>
+      <c r="E53" t="s">
+        <v>312</v>
+      </c>
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>384</v>
+      </c>
+      <c r="C54" t="s">
+        <v>314</v>
+      </c>
+      <c r="D54" t="s">
+        <v>385</v>
+      </c>
+      <c r="E54" t="s">
+        <v>279</v>
+      </c>
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>364</v>
+      </c>
+      <c r="C55" t="s">
+        <v>365</v>
+      </c>
+      <c r="D55" t="s">
+        <v>366</v>
+      </c>
+      <c r="E55" t="s">
+        <v>279</v>
+      </c>
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>371</v>
+      </c>
+      <c r="C56" t="s">
+        <v>372</v>
+      </c>
+      <c r="D56" t="s">
+        <v>373</v>
+      </c>
+      <c r="E56" t="s">
+        <v>306</v>
+      </c>
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>341</v>
+      </c>
+      <c r="C57" t="s">
+        <v>342</v>
+      </c>
+      <c r="D57" t="s">
+        <v>343</v>
+      </c>
+      <c r="E57" t="s">
+        <v>327</v>
+      </c>
+      <c r="F57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>374</v>
+      </c>
+      <c r="C58" t="s">
+        <v>251</v>
+      </c>
+      <c r="D58" t="s">
+        <v>375</v>
+      </c>
+      <c r="E58" t="s">
+        <v>266</v>
+      </c>
+      <c r="F58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>376</v>
+      </c>
+      <c r="C59" t="s">
+        <v>377</v>
+      </c>
+      <c r="D59" t="s">
+        <v>378</v>
+      </c>
+      <c r="E59" t="s">
+        <v>302</v>
+      </c>
+      <c r="F59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>359</v>
+      </c>
+      <c r="C60" t="s">
+        <v>360</v>
+      </c>
+      <c r="D60" t="s">
+        <v>361</v>
+      </c>
+      <c r="E60" t="s">
+        <v>312</v>
+      </c>
+      <c r="F60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>382</v>
+      </c>
+      <c r="C61" t="s">
+        <v>278</v>
+      </c>
+      <c r="D61" t="s">
+        <v>383</v>
+      </c>
+      <c r="E61" t="s">
+        <v>358</v>
+      </c>
+      <c r="F61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>401</v>
+      </c>
+      <c r="C62" t="s">
+        <v>278</v>
+      </c>
+      <c r="D62" t="s">
+        <v>402</v>
+      </c>
+      <c r="E62" t="s">
+        <v>291</v>
+      </c>
+      <c r="F62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>395</v>
+      </c>
+      <c r="C63" t="s">
+        <v>396</v>
+      </c>
+      <c r="D63" t="s">
+        <v>397</v>
+      </c>
+      <c r="E63" t="s">
+        <v>291</v>
+      </c>
+      <c r="F63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>409</v>
+      </c>
+      <c r="C64" t="s">
+        <v>251</v>
+      </c>
+      <c r="D64" t="s">
+        <v>410</v>
+      </c>
+      <c r="E64" t="s">
+        <v>321</v>
+      </c>
+      <c r="F64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>416</v>
+      </c>
+      <c r="C65" t="s">
+        <v>325</v>
+      </c>
+      <c r="D65" t="s">
+        <v>417</v>
+      </c>
+      <c r="E65" t="s">
+        <v>266</v>
+      </c>
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>400</v>
+      </c>
+      <c r="C66" t="s">
+        <v>278</v>
+      </c>
+      <c r="D66" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" t="s">
+        <v>253</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>391</v>
+      </c>
+      <c r="C67" t="s">
+        <v>314</v>
+      </c>
+      <c r="D67" t="s">
+        <v>252</v>
+      </c>
+      <c r="E67" t="s">
+        <v>312</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>390</v>
+      </c>
+      <c r="C68" t="s">
+        <v>314</v>
+      </c>
+      <c r="D68" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68" t="s">
+        <v>253</v>
+      </c>
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>392</v>
+      </c>
+      <c r="C69" t="s">
+        <v>278</v>
+      </c>
+      <c r="D69" t="s">
+        <v>252</v>
+      </c>
+      <c r="E69" t="s">
+        <v>253</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>423</v>
+      </c>
+      <c r="C70" t="s">
+        <v>288</v>
+      </c>
+      <c r="D70" t="s">
+        <v>289</v>
+      </c>
+      <c r="E70" t="s">
+        <v>275</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>424</v>
+      </c>
+      <c r="C71" t="s">
+        <v>296</v>
+      </c>
+      <c r="D71" t="s">
+        <v>425</v>
+      </c>
+      <c r="E71" t="s">
+        <v>426</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>388</v>
+      </c>
+      <c r="C72" t="s">
+        <v>268</v>
+      </c>
+      <c r="D72" t="s">
+        <v>389</v>
+      </c>
+      <c r="E72" t="s">
+        <v>253</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>411</v>
+      </c>
+      <c r="C73" t="s">
+        <v>314</v>
+      </c>
+      <c r="D73" t="s">
+        <v>412</v>
+      </c>
+      <c r="E73" t="s">
+        <v>302</v>
+      </c>
+      <c r="F73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>418</v>
+      </c>
+      <c r="C74" t="s">
+        <v>396</v>
+      </c>
+      <c r="D74" t="s">
+        <v>419</v>
+      </c>
+      <c r="E74" t="s">
+        <v>420</v>
+      </c>
+      <c r="F74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>405</v>
+      </c>
+      <c r="C75" t="s">
+        <v>268</v>
+      </c>
+      <c r="D75" t="s">
+        <v>406</v>
+      </c>
+      <c r="E75" t="s">
+        <v>321</v>
+      </c>
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>413</v>
+      </c>
+      <c r="C76" t="s">
+        <v>414</v>
+      </c>
+      <c r="D76" t="s">
+        <v>415</v>
+      </c>
+      <c r="E76" t="s">
+        <v>312</v>
+      </c>
+      <c r="F76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>407</v>
+      </c>
+      <c r="C77" t="s">
+        <v>314</v>
+      </c>
+      <c r="D77" t="s">
+        <v>408</v>
+      </c>
+      <c r="E77" t="s">
+        <v>321</v>
+      </c>
+      <c r="F77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>393</v>
+      </c>
+      <c r="C78" t="s">
+        <v>319</v>
+      </c>
+      <c r="D78" t="s">
+        <v>394</v>
+      </c>
+      <c r="E78" t="s">
+        <v>262</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>398</v>
+      </c>
+      <c r="C79" t="s">
+        <v>247</v>
+      </c>
+      <c r="D79" t="s">
+        <v>399</v>
+      </c>
+      <c r="E79" t="s">
+        <v>275</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>403</v>
+      </c>
+      <c r="C80" t="s">
+        <v>278</v>
+      </c>
+      <c r="D80" t="s">
+        <v>404</v>
+      </c>
+      <c r="E80" t="s">
+        <v>350</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>421</v>
+      </c>
+      <c r="C81" t="s">
+        <v>278</v>
+      </c>
+      <c r="D81" t="s">
+        <v>422</v>
+      </c>
+      <c r="E81" t="s">
+        <v>306</v>
+      </c>
+      <c r="F81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>431</v>
+      </c>
+      <c r="C82" t="s">
+        <v>251</v>
+      </c>
+      <c r="D82" t="s">
+        <v>252</v>
+      </c>
+      <c r="E82" t="s">
+        <v>253</v>
+      </c>
+      <c r="F82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>429</v>
+      </c>
+      <c r="C83" t="s">
+        <v>314</v>
+      </c>
+      <c r="D83" t="s">
+        <v>430</v>
+      </c>
+      <c r="E83" t="s">
+        <v>253</v>
+      </c>
+      <c r="F83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>455</v>
+      </c>
+      <c r="C84" t="s">
+        <v>278</v>
+      </c>
+      <c r="D84" t="s">
+        <v>389</v>
+      </c>
+      <c r="E84" t="s">
+        <v>456</v>
+      </c>
+      <c r="F84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>454</v>
+      </c>
+      <c r="C85" t="s">
+        <v>278</v>
+      </c>
+      <c r="D85" t="s">
+        <v>389</v>
+      </c>
+      <c r="E85" t="s">
+        <v>253</v>
+      </c>
+      <c r="F85" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>451</v>
+      </c>
+      <c r="C86" t="s">
+        <v>271</v>
+      </c>
+      <c r="D86" t="s">
+        <v>452</v>
+      </c>
+      <c r="E86" t="s">
+        <v>306</v>
+      </c>
+      <c r="F86" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>436</v>
+      </c>
+      <c r="C87" t="s">
+        <v>377</v>
+      </c>
+      <c r="D87" t="s">
+        <v>437</v>
+      </c>
+      <c r="E87" t="s">
+        <v>302</v>
+      </c>
+      <c r="F87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>461</v>
+      </c>
+      <c r="C88" t="s">
+        <v>251</v>
+      </c>
+      <c r="D88" t="s">
+        <v>462</v>
+      </c>
+      <c r="E88" t="s">
+        <v>312</v>
+      </c>
+      <c r="F88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>457</v>
+      </c>
+      <c r="C89" t="s">
+        <v>251</v>
+      </c>
+      <c r="D89" t="s">
+        <v>458</v>
+      </c>
+      <c r="E89" t="s">
+        <v>298</v>
+      </c>
+      <c r="F89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>427</v>
+      </c>
+      <c r="C90" t="s">
+        <v>428</v>
+      </c>
+      <c r="D90" t="s">
+        <v>389</v>
+      </c>
+      <c r="E90" t="s">
+        <v>253</v>
+      </c>
+      <c r="F90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>440</v>
+      </c>
+      <c r="C91" t="s">
+        <v>264</v>
+      </c>
+      <c r="D91" t="s">
+        <v>441</v>
+      </c>
+      <c r="E91" t="s">
+        <v>420</v>
+      </c>
+      <c r="F91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>434</v>
+      </c>
+      <c r="C92" t="s">
+        <v>314</v>
+      </c>
+      <c r="D92" t="s">
+        <v>435</v>
+      </c>
+      <c r="E92" t="s">
+        <v>279</v>
+      </c>
+      <c r="F92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>432</v>
+      </c>
+      <c r="C93" t="s">
+        <v>296</v>
+      </c>
+      <c r="D93" t="s">
+        <v>433</v>
+      </c>
+      <c r="E93" t="s">
+        <v>321</v>
+      </c>
+      <c r="F93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>446</v>
+      </c>
+      <c r="C94" t="s">
+        <v>251</v>
+      </c>
+      <c r="D94" t="s">
+        <v>447</v>
+      </c>
+      <c r="E94" t="s">
+        <v>448</v>
+      </c>
+      <c r="F94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>459</v>
+      </c>
+      <c r="C95" t="s">
+        <v>348</v>
+      </c>
+      <c r="D95" t="s">
+        <v>460</v>
+      </c>
+      <c r="E95" t="s">
+        <v>275</v>
+      </c>
+      <c r="F95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>438</v>
+      </c>
+      <c r="C96" t="s">
+        <v>348</v>
+      </c>
+      <c r="D96" t="s">
+        <v>439</v>
+      </c>
+      <c r="E96" t="s">
+        <v>257</v>
+      </c>
+      <c r="F96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>465</v>
+      </c>
+      <c r="C97" t="s">
+        <v>466</v>
+      </c>
+      <c r="D97" t="s">
+        <v>467</v>
+      </c>
+      <c r="E97" t="s">
+        <v>456</v>
+      </c>
+      <c r="F97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>449</v>
+      </c>
+      <c r="C98" t="s">
+        <v>296</v>
+      </c>
+      <c r="D98" t="s">
+        <v>450</v>
+      </c>
+      <c r="E98" t="s">
+        <v>275</v>
+      </c>
+      <c r="F98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>468</v>
+      </c>
+      <c r="C99" t="s">
+        <v>296</v>
+      </c>
+      <c r="D99" t="s">
+        <v>469</v>
+      </c>
+      <c r="E99" t="s">
+        <v>257</v>
+      </c>
+      <c r="F99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>463</v>
+      </c>
+      <c r="C100" t="s">
+        <v>464</v>
+      </c>
+      <c r="D100" t="s">
+        <v>380</v>
+      </c>
+      <c r="E100" t="s">
+        <v>266</v>
+      </c>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>442</v>
+      </c>
+      <c r="C101" t="s">
+        <v>443</v>
+      </c>
+      <c r="D101" t="s">
+        <v>444</v>
+      </c>
+      <c r="E101" t="s">
+        <v>445</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1800,20 +3888,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="5.83203125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="5.83203125" collapsed="true"/>
+    <col min="2" max="2" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="5.83203125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="5.83203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
